--- a/tests/fixtures/twenty_reactions.xlsx
+++ b/tests/fixtures/twenty_reactions.xlsx
@@ -8,8 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Metabolites" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Reactions" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Taxon" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Molecules" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Reactions" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="133">
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mycoplasma pneumoniae M129</t>
+  </si>
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -299,121 +306,121 @@
     <t xml:space="preserve">1a_24_25VITD2Hm</t>
   </si>
   <si>
-    <t xml:space="preserve">nadph_m + 2425dhvitd2_m + h_m + o2_m --&gt; 1a2425thvitd2_m + h2o_m + nadp_m</t>
+    <t xml:space="preserve">2425dhvitd2_m + nadph_m + o2_m + h_m ==&gt; 1a2425thvitd2_m + nadp_m + h2o_m</t>
   </si>
   <si>
     <t xml:space="preserve">1a_24_25VITD3Hm</t>
   </si>
   <si>
-    <t xml:space="preserve">nadph_m + 2425dhvitd3_m + o2_m + h_m --&gt; h2o_m + nadp_m + 1a2425thvitd3_m</t>
+    <t xml:space="preserve">2425dhvitd3_m + nadph_m + o2_m + h_m ==&gt; 1a2425thvitd3_m + nadp_m + h2o_m</t>
   </si>
   <si>
     <t xml:space="preserve">1a_25VITD2Hm</t>
   </si>
   <si>
-    <t xml:space="preserve">nadph_m + 1a25dhvitd2_m + h_m + o2_m --&gt; 1a2425thvitd2_m + h2o_m + nadp_m</t>
+    <t xml:space="preserve">1a25dhvitd2_m + nadph_m + o2_m + h_m ==&gt; 1a2425thvitd2_m + nadp_m + h2o_m</t>
   </si>
   <si>
     <t xml:space="preserve">1a_25VITD3Hm</t>
   </si>
   <si>
-    <t xml:space="preserve">nadph_m + 1a25dhvitd3_m + o2_m + h_m --&gt; h2o_m + nadp_m + 1a2425thvitd3_m</t>
+    <t xml:space="preserve">1a25dhvitd3_m + nadph_m + o2_m + h_m ==&gt; 1a2425thvitd3_m + nadp_m + h2o_m</t>
   </si>
   <si>
     <t xml:space="preserve">1PPDCRp</t>
   </si>
   <si>
-    <t xml:space="preserve">1pipdn2c_x + h_x + nadh_x --&gt; Lpipecol_x + nad_x</t>
+    <t xml:space="preserve">1pipdn2c_x + nadh_x + h_x ==&gt; Lpipecol_x + nad_x</t>
   </si>
   <si>
     <t xml:space="preserve">24_25VITD2Hm</t>
   </si>
   <si>
-    <t xml:space="preserve">nadph_m + h_m + 25hvitd2_m + o2_m --&gt; 2425dhvitd2_m + h2o_m + nadp_m</t>
+    <t xml:space="preserve">25hvitd2_m + nadph_m + o2_m + h_m ==&gt; 2425dhvitd2_m + nadp_m + h2o_m</t>
   </si>
   <si>
     <t xml:space="preserve">24_25VITD3Hm</t>
   </si>
   <si>
-    <t xml:space="preserve">nadph_m + 25hvitd3_m + o2_m + h_m --&gt; 2425dhvitd3_m + h2o_m + nadp_m</t>
+    <t xml:space="preserve">25hvitd3_m + nadph_m + o2_m + h_m ==&gt; 2425dhvitd3_m + nadp_m + h2o_m</t>
   </si>
   <si>
     <t xml:space="preserve">25VITD2Hm</t>
   </si>
   <si>
-    <t xml:space="preserve">nadph_m + 25hvitd2_m + o2_m + h_m --&gt; 1a25dhvitd2_m + h2o_m + nadp_m</t>
+    <t xml:space="preserve">25hvitd2_m + nadph_m + o2_m + h_m ==&gt; 1a25dhvitd2_m + nadp_m + h2o_m</t>
   </si>
   <si>
     <t xml:space="preserve">25VITD3Hm</t>
   </si>
   <si>
-    <t xml:space="preserve">nadph_m + 25hvitd3_m + o2_m + h_m --&gt; h2o_m + 1a25dhvitd3_m + nadp_m</t>
+    <t xml:space="preserve">25hvitd3_m + nadph_m + o2_m + h_m ==&gt; 1a25dhvitd3_m + nadp_m + h2o_m</t>
   </si>
   <si>
     <t xml:space="preserve">2AMACHYD</t>
   </si>
   <si>
-    <t xml:space="preserve">h2o_c + 2amac_c --&gt; pyr_c + nh4_c</t>
+    <t xml:space="preserve">2amac_c + h2o_c ==&gt; pyr_c + nh4_c</t>
   </si>
   <si>
     <t xml:space="preserve">2AMACSULT</t>
   </si>
   <si>
-    <t xml:space="preserve">paps_c + nadph_c + 2amac_c --&gt; nadp_c + pap_c + Lcyst_c</t>
+    <t xml:space="preserve">2amac_c + paps_c + nadph_c ==&gt; Lcyst_c + pap_c + nadp_c</t>
   </si>
   <si>
     <t xml:space="preserve">2DR1PP</t>
   </si>
   <si>
-    <t xml:space="preserve">h2o_c + 2dr1p_c --&gt; drib_c + pi_c</t>
+    <t xml:space="preserve">2dr1p_c + h2o_c ==&gt; drib_c + pi_c</t>
   </si>
   <si>
     <t xml:space="preserve">2HBO</t>
   </si>
   <si>
-    <t xml:space="preserve">2hb_c + nad_c &lt;=&gt; h_c + 2obut_c + nadh_c</t>
+    <t xml:space="preserve">2hb_c + nad_c &lt;==&gt; 2obut_c + nadh_c + h_c</t>
   </si>
   <si>
     <t xml:space="preserve">2OXOADOXm</t>
   </si>
   <si>
-    <t xml:space="preserve">2oxoadp_m + nad_m + coa_m --&gt; co2_m + nadh_m + glutcoa_m</t>
+    <t xml:space="preserve">2oxoadp_m + nad_m + coa_m ==&gt; glutcoa_m + nadh_m + co2_m</t>
   </si>
   <si>
     <t xml:space="preserve">34DHOXPEGOX</t>
   </si>
   <si>
-    <t xml:space="preserve">h_c + nadh_c + 34dhmald_c &lt;=&gt; nad_c + 34dhoxpeg_c</t>
+    <t xml:space="preserve">34dhmald_c + nadh_c + h_c &lt;==&gt; 34dhoxpeg_c + nad_c</t>
   </si>
   <si>
     <t xml:space="preserve">34DHPHAMT</t>
   </si>
   <si>
-    <t xml:space="preserve">amet_c + 34dhpha_c --&gt; ahcys_c + h_c + homoval_c</t>
+    <t xml:space="preserve">34dhpha_c + amet_c ==&gt; homoval_c + ahcys_c + h_c</t>
   </si>
   <si>
     <t xml:space="preserve">34DHPLACOX</t>
   </si>
   <si>
-    <t xml:space="preserve">nad_c + 34dhpac_c + h2o_c --&gt; nadh_c + 2.0 h_c + 34dhpha_c</t>
+    <t xml:space="preserve">34dhpac_c + nad_c + h2o_c ==&gt; 34dhpha_c + nadh_c + 2.0 h_c</t>
   </si>
   <si>
     <t xml:space="preserve">34DHPLACOX_NADP_</t>
   </si>
   <si>
-    <t xml:space="preserve">34dhpac_c + nadp_c + h2o_c --&gt; 2.0 h_c + nadph_c + 34dhpha_c</t>
+    <t xml:space="preserve">34dhpac_c + nadp_c + h2o_c ==&gt; 34dhpha_c + nadph_c + 2.0 h_c</t>
   </si>
   <si>
     <t xml:space="preserve">34DHXMANDACOX</t>
   </si>
   <si>
-    <t xml:space="preserve">h2o_c + nad_c + 34dhmald_c --&gt; nadh_c + 2.0 h_c + 34dhoxmand_c</t>
+    <t xml:space="preserve">34dhmald_c + nad_c + h2o_c ==&gt; 34dhoxmand_c + nadh_c + 2.0 h_c</t>
   </si>
   <si>
     <t xml:space="preserve">34DHXMANDACOX_NADP_</t>
   </si>
   <si>
-    <t xml:space="preserve">h2o_c + nadp_c + 34dhmald_c --&gt; 2.0 h_c + 34dhoxmand_c + nadph_c</t>
+    <t xml:space="preserve">34dhmald_c + nadp_c + h2o_c ==&gt; 34dhoxmand_c + nadph_c + 2.0 h_c</t>
   </si>
 </sst>
 </file>
@@ -508,12 +515,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -597,418 +604,461 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9311740890688"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="49.9473684210526"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="51.7368421052632"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1034,182 +1084,182 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.8987854251012"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.4453441295547"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>90</v>
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/twenty_reactions.xlsx
+++ b/tests/fixtures/twenty_reactions.xlsx
@@ -8,9 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Taxon" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Molecules" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Reactions" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Genetics" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Compartments" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Species" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Reactions" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,15 +23,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="139">
+  <si>
+    <t xml:space="preserve">Taxon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mycoplasma pneumoniae M129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Mycoplasma pneumoniae M129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member</t>
   </si>
   <si>
     <t xml:space="preserve">Structure</t>
@@ -604,19 +623,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9311740890688"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -624,10 +643,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -642,6 +664,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -659,406 +736,406 @@
   <sheetFormatPr defaultRowHeight="12.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="52.165991902834"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1072,7 +1149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1084,182 +1161,182 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.4453441295547"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.0890688259109"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
